--- a/wastedata_strength(6-9-22).xlsx
+++ b/wastedata_strength(6-9-22).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{488E293E-B54C-44DF-B322-D40F061F7104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leel Dias\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622FEEB-3FB7-4BAB-BEA1-A6833C4DE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="310">
   <si>
     <t>In CURRENT database?</t>
   </si>
@@ -1047,7 +1052,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,21 +1645,21 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="44.1796875" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="81.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" customWidth="1"/>
+    <col min="8" max="8" width="81.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" customHeight="1">
+    <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -1702,7 +1707,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="38.25" customHeight="1">
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -1724,7 +1729,7 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="38.25" customHeight="1">
+    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>19</v>
@@ -1748,7 +1753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38.25" customHeight="1">
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" customHeight="1">
+    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>34</v>
@@ -1798,7 +1803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" customHeight="1">
+    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1822,7 +1827,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1">
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>52</v>
@@ -1870,7 +1875,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" customHeight="1">
+    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1922,7 +1927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="38.25" customHeight="1">
+    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1946,7 +1951,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1">
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>76</v>
@@ -1970,7 +1975,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38.25" customHeight="1">
+    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>83</v>
@@ -1994,7 +1999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25" customHeight="1">
+    <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>90</v>
@@ -2016,7 +2021,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25" customHeight="1">
+    <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>93</v>
@@ -2038,7 +2043,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="38.25" customHeight="1">
+    <row r="17" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
         <v>99</v>
@@ -2058,7 +2063,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="38.25" customHeight="1">
+    <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>104</v>
@@ -2082,7 +2087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="38.25" customHeight="1">
+    <row r="19" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>111</v>
@@ -2104,7 +2109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="38.25" customHeight="1">
+    <row r="20" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>116</v>
@@ -2128,7 +2133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="38.25" customHeight="1">
+    <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>123</v>
@@ -2148,7 +2153,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25" customHeight="1">
+    <row r="22" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>128</v>
@@ -2170,7 +2175,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="38.25" customHeight="1">
+    <row r="23" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>133</v>
@@ -2194,7 +2199,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="38.25" customHeight="1">
+    <row r="24" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>138</v>
@@ -2218,7 +2223,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="38.25" customHeight="1">
+    <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>144</v>
@@ -2240,7 +2245,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="38.25" customHeight="1">
+    <row r="26" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>149</v>
@@ -2262,7 +2267,7 @@
       </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="38.25" customHeight="1">
+    <row r="27" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
         <v>155</v>
@@ -2284,7 +2289,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="38.25" customHeight="1">
+    <row r="28" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>161</v>
@@ -2308,8 +2313,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>168</v>
       </c>
@@ -2328,7 +2335,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="38.25" customHeight="1">
+    <row r="30" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>173</v>
@@ -2352,7 +2359,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="38.25" customHeight="1">
+    <row r="31" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
@@ -2378,7 +2385,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="38.25" customHeight="1">
+    <row r="32" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>186</v>
@@ -2400,7 +2407,7 @@
       </c>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="38.25" customHeight="1">
+    <row r="33" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="14" t="s">
         <v>192</v>
@@ -2422,7 +2429,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="38.25" customHeight="1">
+    <row r="34" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>197</v>
@@ -2444,7 +2451,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="38.25" customHeight="1">
+    <row r="35" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>26</v>
       </c>
@@ -2468,7 +2475,7 @@
       </c>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="38.25" customHeight="1">
+    <row r="36" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
         <v>209</v>
@@ -2492,7 +2499,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="38.25" customHeight="1">
+    <row r="37" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>215</v>
@@ -2514,7 +2521,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="38.25" customHeight="1">
+    <row r="38" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
         <v>220</v>
@@ -2538,7 +2545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="38.25" customHeight="1">
+    <row r="39" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
         <v>226</v>
@@ -2554,7 +2561,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="38.25" customHeight="1">
+    <row r="40" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
         <v>229</v>
@@ -2578,7 +2585,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="38.25" customHeight="1">
+    <row r="41" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
         <v>234</v>
@@ -2602,7 +2609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="38.25" customHeight="1">
+    <row r="42" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>241</v>
@@ -2626,7 +2633,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="38.25" customHeight="1">
+    <row r="43" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
         <v>247</v>
@@ -2650,7 +2657,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="38.25" customHeight="1">
+    <row r="44" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
         <v>253</v>
@@ -2674,7 +2681,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="38.25" customHeight="1">
+    <row r="45" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
         <v>260</v>
@@ -2698,7 +2705,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="38.25" customHeight="1">
+    <row r="46" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>26</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="38.25" customHeight="1">
+    <row r="47" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -2750,7 +2757,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="38.25" customHeight="1">
+    <row r="48" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -2774,7 +2781,7 @@
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="38.25" customHeight="1">
+    <row r="49" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="6" t="s">
         <v>285</v>
@@ -2798,7 +2805,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="38.25" customHeight="1">
+    <row r="50" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="6" t="s">
         <v>292</v>
@@ -2820,7 +2827,7 @@
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="38.25" customHeight="1">
+    <row r="51" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
         <v>298</v>
@@ -2844,7 +2851,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="38.25" customHeight="1">
+    <row r="52" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="16" t="s">
         <v>304</v>
